--- a/documents/Published/Dot Plot/DotPlotByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Dot Plot/DotPlotByMAQSoftwareChecklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerBI-CustomVisuals\documents\Published\Dot Plot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAQUser\source\repos\PowerBI-visuals\documents\Published\Dot Plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD39AFA-A60E-4D9A-8327-3CDF97FBA2F7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E3FE4-C5DC-4717-A20C-CD445B249789}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="1" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
   </bookViews>
   <sheets>
     <sheet name="BVTs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="270">
   <si>
     <t>S no</t>
   </si>
@@ -1067,6 +1067,9 @@
 2. Visual will update according to selections
 3. In the boomarks pane, a new entry of the bookmark will come
 4. The selection state saved in bookmark will be restored in the visual</t>
+  </si>
+  <si>
+    <t>Is report tooltip working properly?</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1186,11 +1189,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA3A3A3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA3A3A3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,6 +1334,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1265,8 +1358,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD979CE-A2F4-4A57-BF74-C680FEBF31B0}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,10 +2747,10 @@
       <c r="C74" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="22" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2656,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED1C0CB-CCB9-4DDC-B99C-E719FAB4C761}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,32 +2949,32 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="24"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="C18" s="27"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
       <c r="B19" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2879,44 +2985,45 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
         <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="26" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
       <c r="B22" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="24"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
       <c r="B23" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="24"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="24"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
       <c r="B25" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="28"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>19</v>
       </c>
@@ -2927,16 +3034,34 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
         <v>20</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="21" t="s">
         <v>171</v>
       </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36">
+        <v>21</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="35"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="33"/>
+      <c r="E29" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2946,5 +3071,6 @@
     <mergeCell ref="C21:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>